--- a/doc/protocol.xlsx
+++ b/doc/protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangsoopark\Desktop\asdf\course\2023\signal-compression\implementation\audio-player-py\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AC8135-A876-4F1A-A0EC-FD65471B0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCDA3B-FF2F-4B16-89B4-78424B500934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25305" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packet definition" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모델 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unsigned long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,19 +161,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Packet ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Play</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -210,6 +198,30 @@
   </si>
   <si>
     <t>전송 패킷 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{size of data}s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big endian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -280,11 +292,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -298,9 +495,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G21"/>
+  <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,44 +831,57 @@
     <col min="6" max="7" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="H4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -646,12 +894,13 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,113 +913,125 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
@@ -809,61 +1070,61 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -974,39 +1235,39 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>

--- a/doc/protocol.xlsx
+++ b/doc/protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangsoopark\Desktop\asdf\course\2023\signal-compression\implementation\audio-player-py\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCDA3B-FF2F-4B16-89B4-78424B500934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6C44D-9CEB-4522-BE7F-DB7199813F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-765" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packet definition" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,35 +193,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>packet_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Audio Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{size of data}s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big endian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signed long</t>
+  </si>
+  <si>
+    <t>4 bytes</t>
   </si>
   <si>
     <t>전송 패킷 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python struct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{size of data}s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>big endian</t>
+  </si>
+  <si>
+    <t>Sender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -477,11 +498,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -492,25 +552,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -531,11 +579,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L21"/>
+  <dimension ref="B3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,55 +897,55 @@
   <sheetData>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>48</v>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="20" t="s">
-        <v>45</v>
+      <c r="G5" s="5"/>
+      <c r="H5" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,13 +958,13 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="20" t="s">
-        <v>45</v>
+      <c r="G6" s="6"/>
+      <c r="H6" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,136 +977,170 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,7 +1181,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1095,7 +1193,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1203,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1119,7 +1217,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1129,73 +1227,73 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
